--- a/Relatório de Vendas/maio.xlsx
+++ b/Relatório de Vendas/maio.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\PycharmProjects\TesteSMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Meus Projetos\Python\Projeto 4 Envio SMS Twilio\Envio-SMS-Twilio\Relatório de Vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BF39B9-2B81-401F-9874-7F17DC0762E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{68ED5FCD-D377-4BA7-9DBE-F386F8CCD573}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3045,7 +3044,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -3400,20 +3399,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBE0790-BAA3-416C-9285-C9F16BA6AD76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1001"/>
+    <sheetView tabSelected="1" topLeftCell="A934" workbookViewId="0">
+      <selection activeCell="B949" sqref="B949"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83984375" customWidth="1"/>
-    <col min="2" max="2" width="14.62890625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3421,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>41006</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3437,7 +3436,7 @@
         <v>38162</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>24992</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3453,7 +3452,7 @@
         <v>30826</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3461,7 +3460,7 @@
         <v>22208</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3469,7 +3468,7 @@
         <v>39751</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>23812</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>23605</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3493,7 +3492,7 @@
         <v>48314</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3501,7 +3500,7 @@
         <v>36925</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3509,7 +3508,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3517,7 +3516,7 @@
         <v>32111</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>22620</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -3533,7 +3532,7 @@
         <v>27052</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>46706</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>49369</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3557,7 +3556,7 @@
         <v>21259</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3565,7 +3564,7 @@
         <v>39244</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>22241</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>32194</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3597,7 +3596,7 @@
         <v>27103</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>36514</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>30240</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3621,7 +3620,7 @@
         <v>46181</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3629,7 +3628,7 @@
         <v>27220</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>30107</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3645,7 +3644,7 @@
         <v>31127</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3653,7 +3652,7 @@
         <v>20876</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>46927</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3669,7 +3668,7 @@
         <v>24523</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>49629</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3685,7 +3684,7 @@
         <v>15329</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>37667</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3701,7 +3700,7 @@
         <v>43531</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3709,7 +3708,7 @@
         <v>36846</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>30859</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3725,7 +3724,7 @@
         <v>22288</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>28334</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3741,7 +3740,7 @@
         <v>28530</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>39138</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -3757,7 +3756,7 @@
         <v>46030</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3765,7 +3764,7 @@
         <v>25819</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>22888</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -3781,7 +3780,7 @@
         <v>32907</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -3789,7 +3788,7 @@
         <v>25210</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>33168</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>20106</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>31578</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>39894</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -3837,7 +3836,7 @@
         <v>16834</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -3845,7 +3844,7 @@
         <v>47311</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>22836</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -3861,7 +3860,7 @@
         <v>27203</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>42648</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -3877,7 +3876,7 @@
         <v>33619</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -3885,7 +3884,7 @@
         <v>18823</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -3893,7 +3892,7 @@
         <v>47609</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>47973</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>23121</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -3917,7 +3916,7 @@
         <v>31139</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3925,7 +3924,7 @@
         <v>47038</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3933,7 +3932,7 @@
         <v>35424</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -3941,7 +3940,7 @@
         <v>29088</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -3949,7 +3948,7 @@
         <v>20370</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>23014</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -3965,7 +3964,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>39743</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -3981,7 +3980,7 @@
         <v>27974</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>19964</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -3997,7 +3996,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -4005,7 +4004,7 @@
         <v>38390</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -4013,7 +4012,7 @@
         <v>39904</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -4021,7 +4020,7 @@
         <v>16587</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -4029,7 +4028,7 @@
         <v>33722</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -4037,7 +4036,7 @@
         <v>34956</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -4045,7 +4044,7 @@
         <v>15469</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>23478</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -4061,7 +4060,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -4069,7 +4068,7 @@
         <v>24486</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -4077,7 +4076,7 @@
         <v>26720</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -4085,7 +4084,7 @@
         <v>15037</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -4093,7 +4092,7 @@
         <v>24874</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -4101,7 +4100,7 @@
         <v>20012</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>26308</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -4117,7 +4116,7 @@
         <v>27966</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -4125,7 +4124,7 @@
         <v>34210</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -4133,7 +4132,7 @@
         <v>41700</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -4141,7 +4140,7 @@
         <v>32300</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>28680</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -4157,7 +4156,7 @@
         <v>35487</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>41931</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -4173,7 +4172,7 @@
         <v>23835</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>24035</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -4189,7 +4188,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -4197,7 +4196,7 @@
         <v>27179</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>41694</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>27756</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>43422</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -4229,7 +4228,7 @@
         <v>17158</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>24554</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -4245,7 +4244,7 @@
         <v>33997</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -4253,7 +4252,7 @@
         <v>28812</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -4261,7 +4260,7 @@
         <v>46725</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>17821</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>42413</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>32478</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>23488</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -4301,7 +4300,7 @@
         <v>17207</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -4309,7 +4308,7 @@
         <v>32347</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -4317,7 +4316,7 @@
         <v>42133</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>27184</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>18519</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -4349,7 +4348,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>49310</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -4373,7 +4372,7 @@
         <v>34452</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>24726</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -4389,7 +4388,7 @@
         <v>31709</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -4397,7 +4396,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -4405,7 +4404,7 @@
         <v>18773</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -4413,7 +4412,7 @@
         <v>31612</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>32451</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>32635</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -4437,7 +4436,7 @@
         <v>26380</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -4445,7 +4444,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -4461,7 +4460,7 @@
         <v>38199</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>43174</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>49116</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -4485,7 +4484,7 @@
         <v>23116</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>23950</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -4501,7 +4500,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -4509,7 +4508,7 @@
         <v>27747</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -4517,7 +4516,7 @@
         <v>31438</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -4525,7 +4524,7 @@
         <v>30181</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -4533,7 +4532,7 @@
         <v>46206</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>18425</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>37795</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -4557,7 +4556,7 @@
         <v>25055</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -4565,7 +4564,7 @@
         <v>38941</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>21963</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>34121</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -4589,7 +4588,7 @@
         <v>42367</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>23609</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>35611</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>45641</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -4621,7 +4620,7 @@
         <v>49820</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>20792</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>15739</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -4653,7 +4652,7 @@
         <v>42715</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -4661,7 +4660,7 @@
         <v>24605</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -4669,7 +4668,7 @@
         <v>37403</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -4677,7 +4676,7 @@
         <v>20069</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -4685,7 +4684,7 @@
         <v>47796</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -4693,7 +4692,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -4701,7 +4700,7 @@
         <v>34247</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>29563</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>23379</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -4725,7 +4724,7 @@
         <v>38610</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>34449</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>25897</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>40100</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -4757,7 +4756,7 @@
         <v>38355</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>49297</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -4781,7 +4780,7 @@
         <v>26498</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>33979</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -4797,7 +4796,7 @@
         <v>46332</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>29122</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>41979</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>41687</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>22012</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -4837,7 +4836,7 @@
         <v>22185</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -4845,7 +4844,7 @@
         <v>15052</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -4853,7 +4852,7 @@
         <v>38961</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>15299</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -4869,7 +4868,7 @@
         <v>35872</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>25217</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>27233</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>31909</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>20349</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>28507</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -4917,7 +4916,7 @@
         <v>27448</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>38753</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -4933,7 +4932,7 @@
         <v>34704</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -4941,7 +4940,7 @@
         <v>47603</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>34059</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>25430</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -4965,7 +4964,7 @@
         <v>17986</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -4973,7 +4972,7 @@
         <v>32001</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>46973</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -4989,7 +4988,7 @@
         <v>19450</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>42237</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>45815</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>38039</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>28863</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -5045,7 +5044,7 @@
         <v>23877</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -5053,7 +5052,7 @@
         <v>25331</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -5069,7 +5068,7 @@
         <v>48891</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -5077,7 +5076,7 @@
         <v>26583</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>37223</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>46951</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>47503</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -5109,7 +5108,7 @@
         <v>28349</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>49740</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -5125,7 +5124,7 @@
         <v>33676</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>37843</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -5141,7 +5140,7 @@
         <v>34818</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>29513</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>33734</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>19369</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>41512</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -5181,7 +5180,7 @@
         <v>41457</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -5189,7 +5188,7 @@
         <v>41791</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>48006</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -5205,7 +5204,7 @@
         <v>46981</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>48092</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -5221,7 +5220,7 @@
         <v>43307</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -5229,7 +5228,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>19736</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -5245,7 +5244,7 @@
         <v>35566</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -5253,7 +5252,7 @@
         <v>22403</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>15381</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -5269,7 +5268,7 @@
         <v>34752</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -5277,7 +5276,7 @@
         <v>24781</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>27077</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>37037</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -5301,7 +5300,7 @@
         <v>34439</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>26581</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -5317,7 +5316,7 @@
         <v>17528</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -5325,7 +5324,7 @@
         <v>38754</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -5333,7 +5332,7 @@
         <v>39942</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -5341,7 +5340,7 @@
         <v>32586</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>36421</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>43538</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -5365,7 +5364,7 @@
         <v>48324</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -5373,7 +5372,7 @@
         <v>34785</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>28018</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>22332</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -5405,7 +5404,7 @@
         <v>36846</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -5421,7 +5420,7 @@
         <v>31735</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>30957</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>33132</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>15977</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>29290</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -5461,7 +5460,7 @@
         <v>45165</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -5469,7 +5468,7 @@
         <v>47242</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>27312</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -5485,7 +5484,7 @@
         <v>35993</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -5493,7 +5492,7 @@
         <v>38984</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -5501,7 +5500,7 @@
         <v>40824</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -5509,7 +5508,7 @@
         <v>33144</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>34880</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>30259</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -5533,7 +5532,7 @@
         <v>24135</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -5541,7 +5540,7 @@
         <v>17808</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -5549,7 +5548,7 @@
         <v>39224</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -5557,7 +5556,7 @@
         <v>38967</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>269</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>25186</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>23615</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>16847</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -5589,7 +5588,7 @@
         <v>35821</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>30479</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>41418</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>37899</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -5621,7 +5620,7 @@
         <v>32501</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -5629,7 +5628,7 @@
         <v>23334</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>38216</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -5645,7 +5644,7 @@
         <v>29160</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>30413</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -5661,7 +5660,7 @@
         <v>15361</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>16975</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>47799</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -5693,7 +5692,7 @@
         <v>21919</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -5701,7 +5700,7 @@
         <v>19922</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>42616</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -5717,7 +5716,7 @@
         <v>33202</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>20189</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>290</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>48223</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -5741,7 +5740,7 @@
         <v>35104</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>292</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>293</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>17847</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -5765,7 +5764,7 @@
         <v>24178</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -5773,7 +5772,7 @@
         <v>23321</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>30372</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>24648</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -5797,7 +5796,7 @@
         <v>36983</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>299</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>20199</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>300</v>
       </c>
@@ -5813,7 +5812,7 @@
         <v>42177</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>48568</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>21592</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>303</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>37839</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>304</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>18706</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>305</v>
       </c>
@@ -5853,7 +5852,7 @@
         <v>19130</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -5861,7 +5860,7 @@
         <v>43174</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>307</v>
       </c>
@@ -5869,7 +5868,7 @@
         <v>46324</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>308</v>
       </c>
@@ -5877,7 +5876,7 @@
         <v>35944</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>309</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>40652</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>25093</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>311</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>25523</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>312</v>
       </c>
@@ -5909,7 +5908,7 @@
         <v>33434</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>313</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>33951</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>314</v>
       </c>
@@ -5925,7 +5924,7 @@
         <v>33703</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>315</v>
       </c>
@@ -5933,7 +5932,7 @@
         <v>35597</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>316</v>
       </c>
@@ -5941,7 +5940,7 @@
         <v>17445</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>317</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>30184</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>318</v>
       </c>
@@ -5957,7 +5956,7 @@
         <v>39816</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>319</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>48238</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>320</v>
       </c>
@@ -5973,7 +5972,7 @@
         <v>21757</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>321</v>
       </c>
@@ -5981,7 +5980,7 @@
         <v>43624</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>322</v>
       </c>
@@ -5989,7 +5988,7 @@
         <v>31849</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>323</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>30039</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>324</v>
       </c>
@@ -6005,7 +6004,7 @@
         <v>43185</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>325</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>41681</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>326</v>
       </c>
@@ -6021,7 +6020,7 @@
         <v>22667</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>327</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>28455</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>328</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>32930</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>329</v>
       </c>
@@ -6045,7 +6044,7 @@
         <v>26464</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>330</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>331</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>27424</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>332</v>
       </c>
@@ -6069,7 +6068,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -6077,7 +6076,7 @@
         <v>35023</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>334</v>
       </c>
@@ -6085,7 +6084,7 @@
         <v>41977</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>335</v>
       </c>
@@ -6093,7 +6092,7 @@
         <v>19949</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>336</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>44478</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>337</v>
       </c>
@@ -6109,7 +6108,7 @@
         <v>26184</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>36943</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>339</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>46381</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>340</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v>46303</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -6141,7 +6140,7 @@
         <v>27212</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>342</v>
       </c>
@@ -6149,7 +6148,7 @@
         <v>23441</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>343</v>
       </c>
@@ -6157,7 +6156,7 @@
         <v>21935</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>344</v>
       </c>
@@ -6165,7 +6164,7 @@
         <v>37945</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>345</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>35201</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>346</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>28908</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>347</v>
       </c>
@@ -6189,7 +6188,7 @@
         <v>21688</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>348</v>
       </c>
@@ -6197,7 +6196,7 @@
         <v>21908</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>349</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>25001</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>350</v>
       </c>
@@ -6213,7 +6212,7 @@
         <v>24786</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>351</v>
       </c>
@@ -6221,7 +6220,7 @@
         <v>33953</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>352</v>
       </c>
@@ -6229,7 +6228,7 @@
         <v>16307</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>353</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>31811</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>354</v>
       </c>
@@ -6245,7 +6244,7 @@
         <v>40763</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>355</v>
       </c>
@@ -6253,7 +6252,7 @@
         <v>42449</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>356</v>
       </c>
@@ -6261,7 +6260,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>357</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>25883</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>358</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>26274</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>359</v>
       </c>
@@ -6285,7 +6284,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>360</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>20552</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>361</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>28757</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>362</v>
       </c>
@@ -6309,7 +6308,7 @@
         <v>30121</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>363</v>
       </c>
@@ -6317,7 +6316,7 @@
         <v>27096</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>364</v>
       </c>
@@ -6325,7 +6324,7 @@
         <v>20598</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>365</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>28005</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>366</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>46366</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>367</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>15463</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>368</v>
       </c>
@@ -6357,7 +6356,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>369</v>
       </c>
@@ -6365,7 +6364,7 @@
         <v>39160</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>370</v>
       </c>
@@ -6373,7 +6372,7 @@
         <v>34909</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>371</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>34248</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>372</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>40341</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>373</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>48593</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>374</v>
       </c>
@@ -6405,7 +6404,7 @@
         <v>41790</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>375</v>
       </c>
@@ -6413,7 +6412,7 @@
         <v>26354</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>376</v>
       </c>
@@ -6421,7 +6420,7 @@
         <v>48903</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>377</v>
       </c>
@@ -6429,7 +6428,7 @@
         <v>29112</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>378</v>
       </c>
@@ -6437,7 +6436,7 @@
         <v>15047</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>379</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>22490</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>380</v>
       </c>
@@ -6453,7 +6452,7 @@
         <v>32688</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>381</v>
       </c>
@@ -6461,7 +6460,7 @@
         <v>29108</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>382</v>
       </c>
@@ -6469,7 +6468,7 @@
         <v>32433</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>383</v>
       </c>
@@ -6477,7 +6476,7 @@
         <v>37641</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>384</v>
       </c>
@@ -6485,7 +6484,7 @@
         <v>28754</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>385</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>31163</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>386</v>
       </c>
@@ -6501,7 +6500,7 @@
         <v>24270</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>387</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>18129</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>388</v>
       </c>
@@ -6517,7 +6516,7 @@
         <v>38888</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>389</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>48695</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>390</v>
       </c>
@@ -6533,7 +6532,7 @@
         <v>37207</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>391</v>
       </c>
@@ -6541,7 +6540,7 @@
         <v>47771</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>392</v>
       </c>
@@ -6549,7 +6548,7 @@
         <v>32974</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>393</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>39403</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>394</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>21439</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>395</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>18341</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>396</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>26735</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>397</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>398</v>
       </c>
@@ -6597,7 +6596,7 @@
         <v>32929</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>399</v>
       </c>
@@ -6605,7 +6604,7 @@
         <v>44115</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>400</v>
       </c>
@@ -6613,7 +6612,7 @@
         <v>49112</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>401</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>40120</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>402</v>
       </c>
@@ -6629,7 +6628,7 @@
         <v>30577</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>403</v>
       </c>
@@ -6637,7 +6636,7 @@
         <v>31138</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>404</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>20397</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>405</v>
       </c>
@@ -6653,7 +6652,7 @@
         <v>32870</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>406</v>
       </c>
@@ -6661,7 +6660,7 @@
         <v>40901</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>407</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>33222</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>408</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>48267</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>409</v>
       </c>
@@ -6685,7 +6684,7 @@
         <v>36625</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>410</v>
       </c>
@@ -6693,7 +6692,7 @@
         <v>35490</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>411</v>
       </c>
@@ -6701,7 +6700,7 @@
         <v>21027</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>412</v>
       </c>
@@ -6709,7 +6708,7 @@
         <v>17149</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>413</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>44723</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>414</v>
       </c>
@@ -6725,7 +6724,7 @@
         <v>47060</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>415</v>
       </c>
@@ -6733,7 +6732,7 @@
         <v>47900</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>416</v>
       </c>
@@ -6741,7 +6740,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>417</v>
       </c>
@@ -6749,7 +6748,7 @@
         <v>26284</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>418</v>
       </c>
@@ -6757,7 +6756,7 @@
         <v>19768</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>419</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>35105</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>420</v>
       </c>
@@ -6773,7 +6772,7 @@
         <v>29835</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>421</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>422</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>35854</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>423</v>
       </c>
@@ -6797,7 +6796,7 @@
         <v>49788</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>424</v>
       </c>
@@ -6805,7 +6804,7 @@
         <v>39753</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>425</v>
       </c>
@@ -6813,7 +6812,7 @@
         <v>17819</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>426</v>
       </c>
@@ -6821,7 +6820,7 @@
         <v>38459</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>427</v>
       </c>
@@ -6829,7 +6828,7 @@
         <v>49164</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>428</v>
       </c>
@@ -6837,7 +6836,7 @@
         <v>21819</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>429</v>
       </c>
@@ -6845,7 +6844,7 @@
         <v>49627</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>430</v>
       </c>
@@ -6853,7 +6852,7 @@
         <v>38979</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>431</v>
       </c>
@@ -6861,7 +6860,7 @@
         <v>39719</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>432</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>433</v>
       </c>
@@ -6877,7 +6876,7 @@
         <v>37047</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>434</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>46547</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>435</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>16597</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>436</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>46472</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>437</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>35192</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>438</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>38979</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>439</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>19955</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>440</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>48095</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>441</v>
       </c>
@@ -6941,7 +6940,7 @@
         <v>26411</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>442</v>
       </c>
@@ -6949,7 +6948,7 @@
         <v>16942</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>443</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>24755</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>444</v>
       </c>
@@ -6965,7 +6964,7 @@
         <v>36185</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>445</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>42908</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>446</v>
       </c>
@@ -6981,7 +6980,7 @@
         <v>24844</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>447</v>
       </c>
@@ -6989,7 +6988,7 @@
         <v>32150</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>448</v>
       </c>
@@ -6997,7 +6996,7 @@
         <v>33080</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>449</v>
       </c>
@@ -7005,7 +7004,7 @@
         <v>30463</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>450</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>21323</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>451</v>
       </c>
@@ -7021,7 +7020,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>452</v>
       </c>
@@ -7029,7 +7028,7 @@
         <v>17691</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>453</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>34548</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>454</v>
       </c>
@@ -7045,7 +7044,7 @@
         <v>20583</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>455</v>
       </c>
@@ -7053,7 +7052,7 @@
         <v>23514</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>456</v>
       </c>
@@ -7061,7 +7060,7 @@
         <v>35271</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>457</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>21699</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>458</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>39980</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>459</v>
       </c>
@@ -7085,7 +7084,7 @@
         <v>28746</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>460</v>
       </c>
@@ -7093,7 +7092,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>461</v>
       </c>
@@ -7101,7 +7100,7 @@
         <v>40568</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>462</v>
       </c>
@@ -7109,7 +7108,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>463</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>20558</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>464</v>
       </c>
@@ -7125,7 +7124,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>465</v>
       </c>
@@ -7133,7 +7132,7 @@
         <v>20409</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>466</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>29302</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>467</v>
       </c>
@@ -7149,7 +7148,7 @@
         <v>18301</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>468</v>
       </c>
@@ -7157,7 +7156,7 @@
         <v>32069</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>469</v>
       </c>
@@ -7165,7 +7164,7 @@
         <v>31921</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>470</v>
       </c>
@@ -7173,7 +7172,7 @@
         <v>20866</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>471</v>
       </c>
@@ -7181,7 +7180,7 @@
         <v>33910</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>472</v>
       </c>
@@ -7189,7 +7188,7 @@
         <v>39666</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>473</v>
       </c>
@@ -7197,7 +7196,7 @@
         <v>26438</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>474</v>
       </c>
@@ -7205,7 +7204,7 @@
         <v>27077</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>475</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>39616</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>476</v>
       </c>
@@ -7221,7 +7220,7 @@
         <v>21874</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>477</v>
       </c>
@@ -7229,7 +7228,7 @@
         <v>16221</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>478</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>33657</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>479</v>
       </c>
@@ -7245,7 +7244,7 @@
         <v>47697</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>480</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>24397</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>481</v>
       </c>
@@ -7261,7 +7260,7 @@
         <v>18840</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>482</v>
       </c>
@@ -7269,7 +7268,7 @@
         <v>15405</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>483</v>
       </c>
@@ -7277,7 +7276,7 @@
         <v>38591</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>484</v>
       </c>
@@ -7285,7 +7284,7 @@
         <v>23223</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>485</v>
       </c>
@@ -7293,7 +7292,7 @@
         <v>46504</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>486</v>
       </c>
@@ -7301,7 +7300,7 @@
         <v>23713</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>487</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>17416</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>488</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>16899</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>489</v>
       </c>
@@ -7325,7 +7324,7 @@
         <v>41477</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>490</v>
       </c>
@@ -7333,7 +7332,7 @@
         <v>23433</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>491</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>34563</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>492</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>38944</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>493</v>
       </c>
@@ -7357,7 +7356,7 @@
         <v>46637</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>494</v>
       </c>
@@ -7365,7 +7364,7 @@
         <v>37944</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>495</v>
       </c>
@@ -7373,7 +7372,7 @@
         <v>35676</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>496</v>
       </c>
@@ -7381,7 +7380,7 @@
         <v>36543</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>497</v>
       </c>
@@ -7389,7 +7388,7 @@
         <v>22498</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>498</v>
       </c>
@@ -7397,7 +7396,7 @@
         <v>49728</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>499</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>45782</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>500</v>
       </c>
@@ -7413,7 +7412,7 @@
         <v>38715</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>501</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>15495</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>502</v>
       </c>
@@ -7429,7 +7428,7 @@
         <v>38934</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>503</v>
       </c>
@@ -7437,7 +7436,7 @@
         <v>20518</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>504</v>
       </c>
@@ -7445,7 +7444,7 @@
         <v>29638</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>505</v>
       </c>
@@ -7453,7 +7452,7 @@
         <v>46945</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>506</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>25774</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>507</v>
       </c>
@@ -7469,7 +7468,7 @@
         <v>49307</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>508</v>
       </c>
@@ -7477,7 +7476,7 @@
         <v>30886</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>509</v>
       </c>
@@ -7485,7 +7484,7 @@
         <v>37245</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>510</v>
       </c>
@@ -7493,7 +7492,7 @@
         <v>33559</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>511</v>
       </c>
@@ -7501,7 +7500,7 @@
         <v>36977</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>512</v>
       </c>
@@ -7509,7 +7508,7 @@
         <v>44576</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>513</v>
       </c>
@@ -7517,7 +7516,7 @@
         <v>49210</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>514</v>
       </c>
@@ -7525,7 +7524,7 @@
         <v>26572</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>515</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>30073</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>516</v>
       </c>
@@ -7541,7 +7540,7 @@
         <v>28340</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>517</v>
       </c>
@@ -7549,7 +7548,7 @@
         <v>46077</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>518</v>
       </c>
@@ -7557,7 +7556,7 @@
         <v>31390</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>519</v>
       </c>
@@ -7565,7 +7564,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>520</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>46309</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>521</v>
       </c>
@@ -7581,7 +7580,7 @@
         <v>36359</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>522</v>
       </c>
@@ -7589,7 +7588,7 @@
         <v>33887</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>523</v>
       </c>
@@ -7597,7 +7596,7 @@
         <v>19439</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>524</v>
       </c>
@@ -7605,7 +7604,7 @@
         <v>32650</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>525</v>
       </c>
@@ -7613,7 +7612,7 @@
         <v>18784</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>526</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>39561</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>527</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>34627</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>528</v>
       </c>
@@ -7637,7 +7636,7 @@
         <v>38739</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>529</v>
       </c>
@@ -7645,7 +7644,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>530</v>
       </c>
@@ -7653,7 +7652,7 @@
         <v>21525</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>531</v>
       </c>
@@ -7661,7 +7660,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>532</v>
       </c>
@@ -7669,7 +7668,7 @@
         <v>19010</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>533</v>
       </c>
@@ -7677,7 +7676,7 @@
         <v>19717</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>534</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>29661</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>535</v>
       </c>
@@ -7693,7 +7692,7 @@
         <v>25747</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>536</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>42506</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>537</v>
       </c>
@@ -7709,7 +7708,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>538</v>
       </c>
@@ -7717,7 +7716,7 @@
         <v>17467</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>539</v>
       </c>
@@ -7725,7 +7724,7 @@
         <v>42730</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>540</v>
       </c>
@@ -7733,7 +7732,7 @@
         <v>19783</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>541</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>44051</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>542</v>
       </c>
@@ -7749,7 +7748,7 @@
         <v>41658</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>543</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>544</v>
       </c>
@@ -7765,7 +7764,7 @@
         <v>24186</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>545</v>
       </c>
@@ -7773,7 +7772,7 @@
         <v>23360</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>546</v>
       </c>
@@ -7781,7 +7780,7 @@
         <v>30608</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>547</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>25811</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>548</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>33064</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>549</v>
       </c>
@@ -7805,7 +7804,7 @@
         <v>15792</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>550</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>16086</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>551</v>
       </c>
@@ -7821,7 +7820,7 @@
         <v>28773</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>552</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>36019</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>553</v>
       </c>
@@ -7837,7 +7836,7 @@
         <v>36190</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>554</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>555</v>
       </c>
@@ -7853,7 +7852,7 @@
         <v>21277</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>556</v>
       </c>
@@ -7861,7 +7860,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>557</v>
       </c>
@@ -7869,7 +7868,7 @@
         <v>33619</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>558</v>
       </c>
@@ -7877,7 +7876,7 @@
         <v>44510</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>559</v>
       </c>
@@ -7885,7 +7884,7 @@
         <v>22703</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>560</v>
       </c>
@@ -7893,7 +7892,7 @@
         <v>18141</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>561</v>
       </c>
@@ -7901,7 +7900,7 @@
         <v>17546</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>562</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>39564</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>563</v>
       </c>
@@ -7917,7 +7916,7 @@
         <v>19779</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>564</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>44492</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>565</v>
       </c>
@@ -7933,7 +7932,7 @@
         <v>40074</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>566</v>
       </c>
@@ -7941,7 +7940,7 @@
         <v>34645</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>567</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>15246</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>568</v>
       </c>
@@ -7957,7 +7956,7 @@
         <v>18161</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>569</v>
       </c>
@@ -7965,7 +7964,7 @@
         <v>39437</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>570</v>
       </c>
@@ -7973,7 +7972,7 @@
         <v>32874</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>571</v>
       </c>
@@ -7981,7 +7980,7 @@
         <v>35439</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>572</v>
       </c>
@@ -7989,7 +7988,7 @@
         <v>44779</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>573</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>48352</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>574</v>
       </c>
@@ -8005,7 +8004,7 @@
         <v>30163</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>575</v>
       </c>
@@ -8013,7 +8012,7 @@
         <v>32153</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>576</v>
       </c>
@@ -8021,7 +8020,7 @@
         <v>31395</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>577</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>37052</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>578</v>
       </c>
@@ -8037,7 +8036,7 @@
         <v>22764</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>579</v>
       </c>
@@ -8045,7 +8044,7 @@
         <v>39116</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>580</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>581</v>
       </c>
@@ -8061,7 +8060,7 @@
         <v>49356</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>582</v>
       </c>
@@ -8069,7 +8068,7 @@
         <v>18856</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>583</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>35138</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>584</v>
       </c>
@@ -8085,7 +8084,7 @@
         <v>29092</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>585</v>
       </c>
@@ -8093,7 +8092,7 @@
         <v>26543</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>586</v>
       </c>
@@ -8101,7 +8100,7 @@
         <v>46071</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>587</v>
       </c>
@@ -8109,7 +8108,7 @@
         <v>30648</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>588</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>46263</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>589</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>36067</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>590</v>
       </c>
@@ -8133,7 +8132,7 @@
         <v>16226</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>591</v>
       </c>
@@ -8141,7 +8140,7 @@
         <v>36655</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>592</v>
       </c>
@@ -8149,7 +8148,7 @@
         <v>17019</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>593</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>25313</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>594</v>
       </c>
@@ -8165,7 +8164,7 @@
         <v>38894</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>595</v>
       </c>
@@ -8173,7 +8172,7 @@
         <v>31512</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>596</v>
       </c>
@@ -8181,7 +8180,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>597</v>
       </c>
@@ -8189,7 +8188,7 @@
         <v>47001</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>598</v>
       </c>
@@ -8197,7 +8196,7 @@
         <v>48084</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>599</v>
       </c>
@@ -8205,7 +8204,7 @@
         <v>18356</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>600</v>
       </c>
@@ -8213,7 +8212,7 @@
         <v>42799</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>601</v>
       </c>
@@ -8221,7 +8220,7 @@
         <v>41153</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>602</v>
       </c>
@@ -8229,7 +8228,7 @@
         <v>36161</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>603</v>
       </c>
@@ -8237,7 +8236,7 @@
         <v>34124</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>604</v>
       </c>
@@ -8245,7 +8244,7 @@
         <v>21005</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>605</v>
       </c>
@@ -8253,7 +8252,7 @@
         <v>28447</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>606</v>
       </c>
@@ -8261,7 +8260,7 @@
         <v>17546</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>607</v>
       </c>
@@ -8269,7 +8268,7 @@
         <v>28444</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>608</v>
       </c>
@@ -8277,7 +8276,7 @@
         <v>19416</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>609</v>
       </c>
@@ -8285,7 +8284,7 @@
         <v>31465</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>610</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>22918</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>611</v>
       </c>
@@ -8301,7 +8300,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>612</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>48956</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>613</v>
       </c>
@@ -8317,7 +8316,7 @@
         <v>17396</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>614</v>
       </c>
@@ -8325,7 +8324,7 @@
         <v>48510</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>615</v>
       </c>
@@ -8333,7 +8332,7 @@
         <v>16883</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>616</v>
       </c>
@@ -8341,7 +8340,7 @@
         <v>37792</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>617</v>
       </c>
@@ -8349,7 +8348,7 @@
         <v>29233</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>618</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>23134</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>619</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>35931</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>620</v>
       </c>
@@ -8373,7 +8372,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>621</v>
       </c>
@@ -8381,7 +8380,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>622</v>
       </c>
@@ -8389,7 +8388,7 @@
         <v>36789</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>623</v>
       </c>
@@ -8397,7 +8396,7 @@
         <v>20362</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>624</v>
       </c>
@@ -8405,7 +8404,7 @@
         <v>31155</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>625</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>32935</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>626</v>
       </c>
@@ -8421,7 +8420,7 @@
         <v>26909</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>627</v>
       </c>
@@ -8429,7 +8428,7 @@
         <v>46228</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>628</v>
       </c>
@@ -8437,7 +8436,7 @@
         <v>16208</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>629</v>
       </c>
@@ -8445,7 +8444,7 @@
         <v>23410</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>630</v>
       </c>
@@ -8453,7 +8452,7 @@
         <v>30124</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>631</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>28109</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>632</v>
       </c>
@@ -8469,7 +8468,7 @@
         <v>19371</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>633</v>
       </c>
@@ -8477,7 +8476,7 @@
         <v>20362</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>634</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>38525</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>635</v>
       </c>
@@ -8493,7 +8492,7 @@
         <v>32487</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>636</v>
       </c>
@@ -8501,7 +8500,7 @@
         <v>16292</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>637</v>
       </c>
@@ -8509,7 +8508,7 @@
         <v>25226</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>638</v>
       </c>
@@ -8517,7 +8516,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>639</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>49779</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>640</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>641</v>
       </c>
@@ -8541,7 +8540,7 @@
         <v>27236</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>642</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>25957</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>643</v>
       </c>
@@ -8557,7 +8556,7 @@
         <v>49212</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>644</v>
       </c>
@@ -8565,7 +8564,7 @@
         <v>34662</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>645</v>
       </c>
@@ -8573,7 +8572,7 @@
         <v>36586</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>646</v>
       </c>
@@ -8581,7 +8580,7 @@
         <v>36939</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>647</v>
       </c>
@@ -8589,7 +8588,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>648</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>39523</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>649</v>
       </c>
@@ -8605,7 +8604,7 @@
         <v>47287</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>650</v>
       </c>
@@ -8613,7 +8612,7 @@
         <v>48741</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>651</v>
       </c>
@@ -8621,7 +8620,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>652</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>43323</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>653</v>
       </c>
@@ -8637,7 +8636,7 @@
         <v>22504</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>654</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>48508</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>655</v>
       </c>
@@ -8653,7 +8652,7 @@
         <v>32996</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>656</v>
       </c>
@@ -8661,7 +8660,7 @@
         <v>32034</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>657</v>
       </c>
@@ -8669,7 +8668,7 @@
         <v>44745</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>658</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>36060</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>659</v>
       </c>
@@ -8685,7 +8684,7 @@
         <v>32136</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>660</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>661</v>
       </c>
@@ -8701,7 +8700,7 @@
         <v>18252</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>662</v>
       </c>
@@ -8709,7 +8708,7 @@
         <v>48040</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>663</v>
       </c>
@@ -8717,7 +8716,7 @@
         <v>42894</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>664</v>
       </c>
@@ -8725,7 +8724,7 @@
         <v>15357</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>665</v>
       </c>
@@ -8733,7 +8732,7 @@
         <v>30600</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>666</v>
       </c>
@@ -8741,7 +8740,7 @@
         <v>38323</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>667</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v>27503</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>668</v>
       </c>
@@ -8757,7 +8756,7 @@
         <v>24927</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>669</v>
       </c>
@@ -8765,7 +8764,7 @@
         <v>41647</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>670</v>
       </c>
@@ -8773,7 +8772,7 @@
         <v>29539</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>671</v>
       </c>
@@ -8781,7 +8780,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>672</v>
       </c>
@@ -8789,7 +8788,7 @@
         <v>37856</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>673</v>
       </c>
@@ -8797,7 +8796,7 @@
         <v>35241</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>674</v>
       </c>
@@ -8805,7 +8804,7 @@
         <v>33485</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>675</v>
       </c>
@@ -8813,7 +8812,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>676</v>
       </c>
@@ -8821,7 +8820,7 @@
         <v>20709</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>677</v>
       </c>
@@ -8829,7 +8828,7 @@
         <v>25591</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>678</v>
       </c>
@@ -8837,7 +8836,7 @@
         <v>21627</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>679</v>
       </c>
@@ -8845,7 +8844,7 @@
         <v>31355</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>680</v>
       </c>
@@ -8853,7 +8852,7 @@
         <v>46165</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>681</v>
       </c>
@@ -8861,7 +8860,7 @@
         <v>36913</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>682</v>
       </c>
@@ -8869,7 +8868,7 @@
         <v>17458</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>683</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>48229</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>684</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>46499</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>685</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>34070</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>686</v>
       </c>
@@ -8901,7 +8900,7 @@
         <v>31260</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>687</v>
       </c>
@@ -8909,7 +8908,7 @@
         <v>42565</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>688</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>43052</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>689</v>
       </c>
@@ -8925,7 +8924,7 @@
         <v>26083</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>690</v>
       </c>
@@ -8933,7 +8932,7 @@
         <v>31020</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>691</v>
       </c>
@@ -8941,7 +8940,7 @@
         <v>27695</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>692</v>
       </c>
@@ -8949,7 +8948,7 @@
         <v>18540</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>693</v>
       </c>
@@ -8957,7 +8956,7 @@
         <v>31798</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>694</v>
       </c>
@@ -8965,7 +8964,7 @@
         <v>36742</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>695</v>
       </c>
@@ -8973,7 +8972,7 @@
         <v>48277</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>696</v>
       </c>
@@ -8981,7 +8980,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>697</v>
       </c>
@@ -8989,7 +8988,7 @@
         <v>17653</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>698</v>
       </c>
@@ -8997,7 +8996,7 @@
         <v>22012</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>699</v>
       </c>
@@ -9005,7 +9004,7 @@
         <v>47269</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>700</v>
       </c>
@@ -9013,7 +9012,7 @@
         <v>22222</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>701</v>
       </c>
@@ -9021,7 +9020,7 @@
         <v>38368</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>702</v>
       </c>
@@ -9029,7 +9028,7 @@
         <v>41007</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>703</v>
       </c>
@@ -9037,7 +9036,7 @@
         <v>15021</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>704</v>
       </c>
@@ -9045,7 +9044,7 @@
         <v>41418</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>705</v>
       </c>
@@ -9053,7 +9052,7 @@
         <v>46923</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>706</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>15885</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>707</v>
       </c>
@@ -9069,7 +9068,7 @@
         <v>20534</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>708</v>
       </c>
@@ -9077,7 +9076,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>709</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>29131</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>710</v>
       </c>
@@ -9093,7 +9092,7 @@
         <v>49056</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>711</v>
       </c>
@@ -9101,7 +9100,7 @@
         <v>35559</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>712</v>
       </c>
@@ -9109,7 +9108,7 @@
         <v>48967</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>713</v>
       </c>
@@ -9117,7 +9116,7 @@
         <v>24035</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>714</v>
       </c>
@@ -9125,7 +9124,7 @@
         <v>31787</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>715</v>
       </c>
@@ -9133,7 +9132,7 @@
         <v>33171</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>716</v>
       </c>
@@ -9141,7 +9140,7 @@
         <v>47590</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>717</v>
       </c>
@@ -9149,7 +9148,7 @@
         <v>15263</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>718</v>
       </c>
@@ -9157,7 +9156,7 @@
         <v>49630</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>719</v>
       </c>
@@ -9165,7 +9164,7 @@
         <v>40519</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>720</v>
       </c>
@@ -9173,7 +9172,7 @@
         <v>49412</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>721</v>
       </c>
@@ -9181,7 +9180,7 @@
         <v>28234</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>722</v>
       </c>
@@ -9189,7 +9188,7 @@
         <v>47989</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>723</v>
       </c>
@@ -9197,7 +9196,7 @@
         <v>29522</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>724</v>
       </c>
@@ -9205,7 +9204,7 @@
         <v>23813</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>725</v>
       </c>
@@ -9213,7 +9212,7 @@
         <v>42921</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>726</v>
       </c>
@@ -9221,7 +9220,7 @@
         <v>28065</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>727</v>
       </c>
@@ -9229,7 +9228,7 @@
         <v>43415</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>728</v>
       </c>
@@ -9237,7 +9236,7 @@
         <v>35360</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>729</v>
       </c>
@@ -9245,7 +9244,7 @@
         <v>40065</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>730</v>
       </c>
@@ -9253,7 +9252,7 @@
         <v>17679</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>731</v>
       </c>
@@ -9261,7 +9260,7 @@
         <v>41035</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>732</v>
       </c>
@@ -9269,7 +9268,7 @@
         <v>20369</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>733</v>
       </c>
@@ -9277,7 +9276,7 @@
         <v>45766</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>734</v>
       </c>
@@ -9285,7 +9284,7 @@
         <v>31746</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>735</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>736</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>737</v>
       </c>
@@ -9309,7 +9308,7 @@
         <v>46523</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>738</v>
       </c>
@@ -9317,7 +9316,7 @@
         <v>17569</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>739</v>
       </c>
@@ -9325,7 +9324,7 @@
         <v>27288</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>740</v>
       </c>
@@ -9333,7 +9332,7 @@
         <v>34086</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>741</v>
       </c>
@@ -9341,7 +9340,7 @@
         <v>27107</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>742</v>
       </c>
@@ -9349,7 +9348,7 @@
         <v>36159</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>743</v>
       </c>
@@ -9357,7 +9356,7 @@
         <v>28886</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>744</v>
       </c>
@@ -9365,7 +9364,7 @@
         <v>26818</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>745</v>
       </c>
@@ -9373,7 +9372,7 @@
         <v>44187</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>746</v>
       </c>
@@ -9381,7 +9380,7 @@
         <v>40548</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>747</v>
       </c>
@@ -9389,7 +9388,7 @@
         <v>21165</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>748</v>
       </c>
@@ -9397,7 +9396,7 @@
         <v>26482</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>749</v>
       </c>
@@ -9405,7 +9404,7 @@
         <v>40340</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>750</v>
       </c>
@@ -9413,7 +9412,7 @@
         <v>30171</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>751</v>
       </c>
@@ -9421,7 +9420,7 @@
         <v>36638</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>752</v>
       </c>
@@ -9429,7 +9428,7 @@
         <v>42105</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>753</v>
       </c>
@@ -9437,7 +9436,7 @@
         <v>39016</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>754</v>
       </c>
@@ -9445,7 +9444,7 @@
         <v>23471</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>755</v>
       </c>
@@ -9453,7 +9452,7 @@
         <v>21270</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>756</v>
       </c>
@@ -9461,7 +9460,7 @@
         <v>19618</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>757</v>
       </c>
@@ -9469,7 +9468,7 @@
         <v>24322</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>758</v>
       </c>
@@ -9477,7 +9476,7 @@
         <v>32808</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>759</v>
       </c>
@@ -9485,7 +9484,7 @@
         <v>15057</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>760</v>
       </c>
@@ -9493,7 +9492,7 @@
         <v>33131</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>761</v>
       </c>
@@ -9501,7 +9500,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>762</v>
       </c>
@@ -9509,7 +9508,7 @@
         <v>33044</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>763</v>
       </c>
@@ -9517,7 +9516,7 @@
         <v>36444</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>764</v>
       </c>
@@ -9525,7 +9524,7 @@
         <v>48724</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>765</v>
       </c>
@@ -9533,7 +9532,7 @@
         <v>48775</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>766</v>
       </c>
@@ -9541,7 +9540,7 @@
         <v>29910</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>767</v>
       </c>
@@ -9549,7 +9548,7 @@
         <v>36180</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>768</v>
       </c>
@@ -9557,7 +9556,7 @@
         <v>28661</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>769</v>
       </c>
@@ -9565,7 +9564,7 @@
         <v>20747</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>770</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v>36014</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>771</v>
       </c>
@@ -9581,7 +9580,7 @@
         <v>25651</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>772</v>
       </c>
@@ -9589,7 +9588,7 @@
         <v>23074</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>773</v>
       </c>
@@ -9597,7 +9596,7 @@
         <v>23800</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>774</v>
       </c>
@@ -9605,7 +9604,7 @@
         <v>22897</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>775</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>31551</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>776</v>
       </c>
@@ -9621,7 +9620,7 @@
         <v>31348</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>777</v>
       </c>
@@ -9629,7 +9628,7 @@
         <v>27838</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>778</v>
       </c>
@@ -9637,7 +9636,7 @@
         <v>49701</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>779</v>
       </c>
@@ -9645,7 +9644,7 @@
         <v>33300</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>780</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>16768</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>781</v>
       </c>
@@ -9661,7 +9660,7 @@
         <v>39469</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>782</v>
       </c>
@@ -9669,7 +9668,7 @@
         <v>35382</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>783</v>
       </c>
@@ -9677,7 +9676,7 @@
         <v>27989</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>784</v>
       </c>
@@ -9685,7 +9684,7 @@
         <v>15092</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>785</v>
       </c>
@@ -9693,7 +9692,7 @@
         <v>15392</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>786</v>
       </c>
@@ -9701,7 +9700,7 @@
         <v>35224</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>787</v>
       </c>
@@ -9709,7 +9708,7 @@
         <v>48020</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>788</v>
       </c>
@@ -9717,7 +9716,7 @@
         <v>30377</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>789</v>
       </c>
@@ -9725,7 +9724,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>790</v>
       </c>
@@ -9733,7 +9732,7 @@
         <v>36263</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>791</v>
       </c>
@@ -9741,7 +9740,7 @@
         <v>21684</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>792</v>
       </c>
@@ -9749,7 +9748,7 @@
         <v>28814</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>793</v>
       </c>
@@ -9757,7 +9756,7 @@
         <v>16191</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>794</v>
       </c>
@@ -9765,7 +9764,7 @@
         <v>31685</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>795</v>
       </c>
@@ -9773,7 +9772,7 @@
         <v>26304</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>796</v>
       </c>
@@ -9781,7 +9780,7 @@
         <v>23452</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>797</v>
       </c>
@@ -9789,7 +9788,7 @@
         <v>34348</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>798</v>
       </c>
@@ -9797,7 +9796,7 @@
         <v>48960</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>799</v>
       </c>
@@ -9805,7 +9804,7 @@
         <v>35513</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>800</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>21317</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>801</v>
       </c>
@@ -9821,7 +9820,7 @@
         <v>19514</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>802</v>
       </c>
@@ -9829,7 +9828,7 @@
         <v>48818</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>803</v>
       </c>
@@ -9837,7 +9836,7 @@
         <v>28243</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>804</v>
       </c>
@@ -9845,7 +9844,7 @@
         <v>41810</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>805</v>
       </c>
@@ -9853,7 +9852,7 @@
         <v>40947</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>806</v>
       </c>
@@ -9861,7 +9860,7 @@
         <v>35543</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>807</v>
       </c>
@@ -9869,7 +9868,7 @@
         <v>44276</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>808</v>
       </c>
@@ -9877,7 +9876,7 @@
         <v>28255</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>809</v>
       </c>
@@ -9885,7 +9884,7 @@
         <v>27355</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>810</v>
       </c>
@@ -9893,7 +9892,7 @@
         <v>36738</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>811</v>
       </c>
@@ -9901,7 +9900,7 @@
         <v>23519</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>812</v>
       </c>
@@ -9909,7 +9908,7 @@
         <v>48438</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>813</v>
       </c>
@@ -9917,7 +9916,7 @@
         <v>26595</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>814</v>
       </c>
@@ -9925,7 +9924,7 @@
         <v>16526</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>815</v>
       </c>
@@ -9933,7 +9932,7 @@
         <v>23589</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>816</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>34401</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>817</v>
       </c>
@@ -9949,7 +9948,7 @@
         <v>15188</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>818</v>
       </c>
@@ -9957,7 +9956,7 @@
         <v>25524</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>819</v>
       </c>
@@ -9965,7 +9964,7 @@
         <v>40294</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>820</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>34523</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>821</v>
       </c>
@@ -9981,7 +9980,7 @@
         <v>44472</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>822</v>
       </c>
@@ -9989,7 +9988,7 @@
         <v>41780</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>823</v>
       </c>
@@ -9997,7 +9996,7 @@
         <v>16185</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>824</v>
       </c>
@@ -10005,7 +10004,7 @@
         <v>46983</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>825</v>
       </c>
@@ -10013,7 +10012,7 @@
         <v>17509</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>826</v>
       </c>
@@ -10021,7 +10020,7 @@
         <v>39508</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>827</v>
       </c>
@@ -10029,7 +10028,7 @@
         <v>46410</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>828</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>38222</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>829</v>
       </c>
@@ -10045,7 +10044,7 @@
         <v>26683</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>830</v>
       </c>
@@ -10053,7 +10052,7 @@
         <v>40048</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>831</v>
       </c>
@@ -10061,7 +10060,7 @@
         <v>48655</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>832</v>
       </c>
@@ -10069,7 +10068,7 @@
         <v>29028</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>833</v>
       </c>
@@ -10077,7 +10076,7 @@
         <v>24117</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>834</v>
       </c>
@@ -10085,7 +10084,7 @@
         <v>37509</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>835</v>
       </c>
@@ -10093,7 +10092,7 @@
         <v>45740</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>836</v>
       </c>
@@ -10101,7 +10100,7 @@
         <v>17977</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>837</v>
       </c>
@@ -10109,7 +10108,7 @@
         <v>45668</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>838</v>
       </c>
@@ -10117,7 +10116,7 @@
         <v>47589</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>839</v>
       </c>
@@ -10125,7 +10124,7 @@
         <v>35541</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>840</v>
       </c>
@@ -10133,7 +10132,7 @@
         <v>16685</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>841</v>
       </c>
@@ -10141,7 +10140,7 @@
         <v>19931</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>842</v>
       </c>
@@ -10149,7 +10148,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>843</v>
       </c>
@@ -10157,7 +10156,7 @@
         <v>49308</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>844</v>
       </c>
@@ -10165,7 +10164,7 @@
         <v>31385</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>845</v>
       </c>
@@ -10173,7 +10172,7 @@
         <v>19996</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>846</v>
       </c>
@@ -10181,7 +10180,7 @@
         <v>25862</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>847</v>
       </c>
@@ -10189,7 +10188,7 @@
         <v>46080</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>848</v>
       </c>
@@ -10197,7 +10196,7 @@
         <v>37194</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>849</v>
       </c>
@@ -10205,7 +10204,7 @@
         <v>33719</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>850</v>
       </c>
@@ -10213,7 +10212,7 @@
         <v>22750</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>851</v>
       </c>
@@ -10221,7 +10220,7 @@
         <v>18395</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>852</v>
       </c>
@@ -10229,7 +10228,7 @@
         <v>40532</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>853</v>
       </c>
@@ -10237,7 +10236,7 @@
         <v>30876</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>854</v>
       </c>
@@ -10245,7 +10244,7 @@
         <v>20772</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>855</v>
       </c>
@@ -10253,7 +10252,7 @@
         <v>39043</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>856</v>
       </c>
@@ -10261,7 +10260,7 @@
         <v>19823</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>857</v>
       </c>
@@ -10269,7 +10268,7 @@
         <v>33338</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>858</v>
       </c>
@@ -10277,7 +10276,7 @@
         <v>39006</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>859</v>
       </c>
@@ -10285,7 +10284,7 @@
         <v>15270</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>860</v>
       </c>
@@ -10293,7 +10292,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>861</v>
       </c>
@@ -10301,7 +10300,7 @@
         <v>35221</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>862</v>
       </c>
@@ -10309,7 +10308,7 @@
         <v>28248</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>863</v>
       </c>
@@ -10317,7 +10316,7 @@
         <v>17141</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>864</v>
       </c>
@@ -10325,7 +10324,7 @@
         <v>18298</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>865</v>
       </c>
@@ -10333,7 +10332,7 @@
         <v>18814</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>866</v>
       </c>
@@ -10341,7 +10340,7 @@
         <v>16965</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>867</v>
       </c>
@@ -10349,7 +10348,7 @@
         <v>41442</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>868</v>
       </c>
@@ -10357,7 +10356,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>869</v>
       </c>
@@ -10365,7 +10364,7 @@
         <v>31834</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>870</v>
       </c>
@@ -10373,7 +10372,7 @@
         <v>37822</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>871</v>
       </c>
@@ -10381,7 +10380,7 @@
         <v>21517</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>872</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>873</v>
       </c>
@@ -10397,7 +10396,7 @@
         <v>38856</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>874</v>
       </c>
@@ -10405,7 +10404,7 @@
         <v>38069</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>875</v>
       </c>
@@ -10413,7 +10412,7 @@
         <v>16142</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>876</v>
       </c>
@@ -10421,7 +10420,7 @@
         <v>39794</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>877</v>
       </c>
@@ -10429,7 +10428,7 @@
         <v>35305</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>878</v>
       </c>
@@ -10437,7 +10436,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>879</v>
       </c>
@@ -10445,7 +10444,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>880</v>
       </c>
@@ -10453,7 +10452,7 @@
         <v>28530</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>881</v>
       </c>
@@ -10461,7 +10460,7 @@
         <v>35180</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>882</v>
       </c>
@@ -10469,7 +10468,7 @@
         <v>32276</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>883</v>
       </c>
@@ -10477,7 +10476,7 @@
         <v>37613</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>884</v>
       </c>
@@ -10485,7 +10484,7 @@
         <v>16311</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>885</v>
       </c>
@@ -10493,7 +10492,7 @@
         <v>37839</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>886</v>
       </c>
@@ -10501,7 +10500,7 @@
         <v>28567</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>887</v>
       </c>
@@ -10509,7 +10508,7 @@
         <v>15571</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>888</v>
       </c>
@@ -10517,7 +10516,7 @@
         <v>21063</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>889</v>
       </c>
@@ -10525,7 +10524,7 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>890</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>19932</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>891</v>
       </c>
@@ -10541,7 +10540,7 @@
         <v>47977</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>892</v>
       </c>
@@ -10549,7 +10548,7 @@
         <v>29921</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>893</v>
       </c>
@@ -10557,7 +10556,7 @@
         <v>37226</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>894</v>
       </c>
@@ -10565,7 +10564,7 @@
         <v>36151</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>895</v>
       </c>
@@ -10573,7 +10572,7 @@
         <v>32899</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>896</v>
       </c>
@@ -10581,7 +10580,7 @@
         <v>18970</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>897</v>
       </c>
@@ -10589,7 +10588,7 @@
         <v>48217</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>898</v>
       </c>
@@ -10597,7 +10596,7 @@
         <v>45971</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>899</v>
       </c>
@@ -10605,7 +10604,7 @@
         <v>19251</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>900</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>35144</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>901</v>
       </c>
@@ -10621,7 +10620,7 @@
         <v>35533</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>902</v>
       </c>
@@ -10629,7 +10628,7 @@
         <v>36405</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>903</v>
       </c>
@@ -10637,7 +10636,7 @@
         <v>31836</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>904</v>
       </c>
@@ -10645,7 +10644,7 @@
         <v>36068</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>905</v>
       </c>
@@ -10653,7 +10652,7 @@
         <v>40870</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>906</v>
       </c>
@@ -10661,7 +10660,7 @@
         <v>46726</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>907</v>
       </c>
@@ -10669,7 +10668,7 @@
         <v>17479</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>908</v>
       </c>
@@ -10677,7 +10676,7 @@
         <v>32387</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>909</v>
       </c>
@@ -10685,7 +10684,7 @@
         <v>34747</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>910</v>
       </c>
@@ -10693,7 +10692,7 @@
         <v>38924</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>911</v>
       </c>
@@ -10701,7 +10700,7 @@
         <v>39039</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>912</v>
       </c>
@@ -10709,7 +10708,7 @@
         <v>30823</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>913</v>
       </c>
@@ -10717,7 +10716,7 @@
         <v>37270</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>914</v>
       </c>
@@ -10725,7 +10724,7 @@
         <v>31051</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>915</v>
       </c>
@@ -10733,7 +10732,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>916</v>
       </c>
@@ -10741,7 +10740,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>917</v>
       </c>
@@ -10749,7 +10748,7 @@
         <v>42785</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>918</v>
       </c>
@@ -10757,7 +10756,7 @@
         <v>42203</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>919</v>
       </c>
@@ -10765,7 +10764,7 @@
         <v>39977</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>920</v>
       </c>
@@ -10773,7 +10772,7 @@
         <v>47809</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>921</v>
       </c>
@@ -10781,7 +10780,7 @@
         <v>27445</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>922</v>
       </c>
@@ -10789,7 +10788,7 @@
         <v>24971</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>923</v>
       </c>
@@ -10797,7 +10796,7 @@
         <v>22475</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>924</v>
       </c>
@@ -10805,7 +10804,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>925</v>
       </c>
@@ -10813,7 +10812,7 @@
         <v>16550</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>926</v>
       </c>
@@ -10821,7 +10820,7 @@
         <v>33339</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>927</v>
       </c>
@@ -10829,7 +10828,7 @@
         <v>18422</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>928</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>35584</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>929</v>
       </c>
@@ -10845,7 +10844,7 @@
         <v>46326</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>930</v>
       </c>
@@ -10853,7 +10852,7 @@
         <v>20531</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>931</v>
       </c>
@@ -10861,7 +10860,7 @@
         <v>20586</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>932</v>
       </c>
@@ -10869,7 +10868,7 @@
         <v>26682</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>933</v>
       </c>
@@ -10877,7 +10876,7 @@
         <v>34818</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>934</v>
       </c>
@@ -10885,7 +10884,7 @@
         <v>27705</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>935</v>
       </c>
@@ -10893,7 +10892,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>936</v>
       </c>
@@ -10901,7 +10900,7 @@
         <v>15757</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>937</v>
       </c>
@@ -10909,7 +10908,7 @@
         <v>49440</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>938</v>
       </c>
@@ -10917,7 +10916,7 @@
         <v>21304</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>939</v>
       </c>
@@ -10925,7 +10924,7 @@
         <v>43001</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>940</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>47567</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>941</v>
       </c>
@@ -10941,7 +10940,7 @@
         <v>48578</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>942</v>
       </c>
@@ -10949,7 +10948,7 @@
         <v>23722</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>943</v>
       </c>
@@ -10957,7 +10956,7 @@
         <v>45165</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>944</v>
       </c>
@@ -10965,7 +10964,7 @@
         <v>15652</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>945</v>
       </c>
@@ -10973,7 +10972,7 @@
         <v>15815</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>946</v>
       </c>
@@ -10981,7 +10980,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>947</v>
       </c>
@@ -10989,15 +10988,15 @@
         <v>25095</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>1001</v>
       </c>
       <c r="B948" s="1">
-        <v>57312</v>
-      </c>
-    </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>47312</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>948</v>
       </c>
@@ -11005,7 +11004,7 @@
         <v>48575</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>949</v>
       </c>
@@ -11013,7 +11012,7 @@
         <v>17339</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>950</v>
       </c>
@@ -11021,7 +11020,7 @@
         <v>42789</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>951</v>
       </c>
@@ -11029,7 +11028,7 @@
         <v>35774</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>952</v>
       </c>
@@ -11037,7 +11036,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>953</v>
       </c>
@@ -11045,7 +11044,7 @@
         <v>19230</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>954</v>
       </c>
@@ -11053,7 +11052,7 @@
         <v>16160</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>955</v>
       </c>
@@ -11061,7 +11060,7 @@
         <v>30080</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>956</v>
       </c>
@@ -11069,7 +11068,7 @@
         <v>37816</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>957</v>
       </c>
@@ -11077,7 +11076,7 @@
         <v>18328</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>958</v>
       </c>
@@ -11085,7 +11084,7 @@
         <v>38617</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>959</v>
       </c>
@@ -11093,7 +11092,7 @@
         <v>22760</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>960</v>
       </c>
@@ -11101,7 +11100,7 @@
         <v>38759</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>961</v>
       </c>
@@ -11109,7 +11108,7 @@
         <v>27523</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>962</v>
       </c>
@@ -11117,7 +11116,7 @@
         <v>28495</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>963</v>
       </c>
@@ -11125,7 +11124,7 @@
         <v>28818</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>964</v>
       </c>
@@ -11133,7 +11132,7 @@
         <v>38404</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>965</v>
       </c>
@@ -11141,7 +11140,7 @@
         <v>17180</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>966</v>
       </c>
@@ -11149,7 +11148,7 @@
         <v>18653</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>967</v>
       </c>
@@ -11157,7 +11156,7 @@
         <v>17147</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>968</v>
       </c>
@@ -11165,7 +11164,7 @@
         <v>27843</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>969</v>
       </c>
@@ -11173,7 +11172,7 @@
         <v>26175</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>970</v>
       </c>
@@ -11181,7 +11180,7 @@
         <v>28484</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>971</v>
       </c>
@@ -11189,7 +11188,7 @@
         <v>26940</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>972</v>
       </c>
@@ -11197,7 +11196,7 @@
         <v>21708</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>973</v>
       </c>
@@ -11205,7 +11204,7 @@
         <v>38911</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>974</v>
       </c>
@@ -11213,7 +11212,7 @@
         <v>20063</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>975</v>
       </c>
@@ -11221,7 +11220,7 @@
         <v>32281</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>976</v>
       </c>
@@ -11229,7 +11228,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>977</v>
       </c>
@@ -11237,7 +11236,7 @@
         <v>42548</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>978</v>
       </c>
@@ -11245,7 +11244,7 @@
         <v>18048</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>979</v>
       </c>
@@ -11253,7 +11252,7 @@
         <v>15228</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>980</v>
       </c>
@@ -11261,7 +11260,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>981</v>
       </c>
@@ -11269,7 +11268,7 @@
         <v>47407</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>982</v>
       </c>
@@ -11277,7 +11276,7 @@
         <v>23690</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>983</v>
       </c>
@@ -11285,7 +11284,7 @@
         <v>28970</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>984</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>32199</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>985</v>
       </c>
@@ -11301,7 +11300,7 @@
         <v>17498</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>986</v>
       </c>
@@ -11309,7 +11308,7 @@
         <v>30206</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>987</v>
       </c>
@@ -11317,7 +11316,7 @@
         <v>42132</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>988</v>
       </c>
@@ -11325,7 +11324,7 @@
         <v>17123</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>989</v>
       </c>
@@ -11333,7 +11332,7 @@
         <v>17352</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>990</v>
       </c>
@@ -11341,7 +11340,7 @@
         <v>18343</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>991</v>
       </c>
@@ -11349,7 +11348,7 @@
         <v>19563</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>992</v>
       </c>
@@ -11357,7 +11356,7 @@
         <v>18891</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>993</v>
       </c>
@@ -11365,7 +11364,7 @@
         <v>35516</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>994</v>
       </c>
@@ -11373,7 +11372,7 @@
         <v>30176</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>995</v>
       </c>
@@ -11381,7 +11380,7 @@
         <v>38554</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>996</v>
       </c>
@@ -11389,7 +11388,7 @@
         <v>26294</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>997</v>
       </c>
@@ -11397,7 +11396,7 @@
         <v>30144</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>998</v>
       </c>
@@ -11405,7 +11404,7 @@
         <v>36002</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>999</v>
       </c>
@@ -11413,7 +11412,7 @@
         <v>31030</v>
       </c>
     </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>1000</v>
       </c>

--- a/Relatório de Vendas/maio.xlsx
+++ b/Relatório de Vendas/maio.xlsx
@@ -3048,7 +3048,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3058,6 +3058,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3083,9 +3091,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3402,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A934" workbookViewId="0">
-      <selection activeCell="B949" sqref="B949"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,14 +3466,14 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>22208</v>
+        <v>56208</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>39751</v>
       </c>
     </row>
@@ -11423,5 +11432,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>